--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -587,108 +587,108 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Notebook Acer Aspire 5, Intel Core I5 12ªG, 8GB, SSD 256GB, Tela 15.6 Full HD, Windows 11 Home - A515-57-53z5</t>
+          <t>Notebook Asus Intel Core i3 1005G1, 4GB RAM, 256GB SSD, Tela 15.6, Endless OS, Cinza - X515JA-BR2750</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R$ 2.564,05</t>
+          <t>R$ 1.999,99</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Notebook Asus Intel Core i3 1005G1, 4GB RAM, 256GB SSD, Tela 15.6, Endless OS, Cinza - X515JA-BR2750</t>
+          <t>Notebook Asus Vivobook AMD Ryzen 5-4600H, 8GB RAM, SSD 256GB, 15.6 Full HD, AMD Radeon Graphics , KeepOS, Prata Metálico - M1502IA-EJ251</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R$ 1.999,99</t>
+          <t>R$ 2.699,99</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Notebook Asus Vivobook AMD Ryzen 5-4600H, 8GB RAM, SSD 256GB, 15.6 Full HD, AMD Radeon Graphics , KeepOS, Prata Metálico - M1502IA-EJ251</t>
+          <t>Notebook Gamer ASUS TUF Intel Core i7-12700H, 8GB RAM, GeForce RTX 3050, SSD 512GB, 15.6 Full HD 144Hz, KeepOS, Cinza - FX507ZC4-HN112</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R$ 2.699,99</t>
+          <t>R$ 5.699,99</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Notebook Gamer ASUS TUF Intel Core i7-12700H, 8GB RAM, GeForce RTX 3050, SSD 512GB, 15.6 Full HD 144Hz, KeepOS, Cinza - FX507ZC4-HN112</t>
+          <t>Notebook Acer Aspire 5, Intel Core I5 12ª Gen, 8GB, SSD 256GB, Tela 15.6 Full HD - A515-57-58w1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R$ 5.699,99</t>
+          <t>R$ 2.374,05</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Notebook Acer Aspire 5, Intel Core I5 12ª Gen, 8GB, SSD 256GB, Tela 15.6 Full HD - A515-57-58w1</t>
+          <t>Notebook Samsung Book Intel Core i3-1115G4, 4GB RAM, SSD 256GB, 15.6 Full HD, Windows 11 Home, Cinza - NP550XDA-KV3BR</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R$ 2.374,05</t>
+          <t>R$ 2.069,10</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Notebook Samsung Book Intel Core i3-1115G4, 4GB RAM, SSD 256GB, 15.6 Full HD, Windows 11 Home, Cinza - NP550XDA-KV3BR</t>
+          <t>Notebook Gamer Acer, Nitro 5 An515-45-r91a, Ryzen 5, Windows 11 Home, 8GB, 512GB, Ssd Gtx 1650, 15.6'' FHD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R$ 2.069,10</t>
+          <t>R$ 4.084,05</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Notebook Gamer Acer, Nitro 5 An515-45-r91a, Ryzen 5, Windows 11 Home, 8GB, 512GB, Ssd Gtx 1650, 15.6'' FHD</t>
+          <t>Notebook Gamer Asus Rog Strix G16, Intel Core i9-13980HX, 16GB RAM, GeForce RTX 4060, SSD 512GB, 16´ FHD, Win 11, Cinza - G614JV-N3094W</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R$ 4.084,05</t>
+          <t>R$ 11.299,99</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Notebook Gamer Acer Nitro 5,15.6 Polegadas,FULL HD, 144hz I5-12450h, SSD 512GB, 8GB Rtx 3050, 4GB, W11 Home, Preto - AN515-58-54UH</t>
+          <t>Notebook Samsung Book Intel Celeron Dual-Core, 4GB RAM, SSD 256GB, 15.6 Full HD, Windows 11 Home, Cinza - NP550XDA-KP3BR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R$ 4.464,05</t>
+          <t>R$ 1.579,90</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Notebook Gamer Asus Rog Strix G16, Intel Core i9-13980HX, 16GB RAM, GeForce RTX 4060, SSD 512GB, 16´ FHD, Win 11, Cinza - G614JV-N3094W</t>
+          <t>Notebook Acer Nitro 5 An515-58-58w3 Intel Core I5 12ªgen Linux Gutta, 8GB, 512GB SSD, RTX3050, 15.6 Polegadas FULL HD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R$ 11.299,99</t>
+          <t>R$ 3.989,05</t>
         </is>
       </c>
     </row>
